--- a/biology/Origine et évolution du vivant/Tribu_(biologie)/Tribu_(biologie).xlsx
+++ b/biology/Origine et évolution du vivant/Tribu_(biologie)/Tribu_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la systématique classique (« linnéenne ») des êtres vivants, la tribu est un rang taxonomique de niveau inférieur à la famille et supérieur au genre. En cas de besoin il peut être créé un rang intermédiaire avec la famille (sous-famille) et avec le genre (sous-tribu).
 Les aspects formels des noms de rangs sont fixés par les Codes de nomenclature pour chaque discipline des sciences de la vie (bactériologie, botanique, mycologie, zoologie).
@@ -512,14 +524,12 @@
           <t>Terminaisons latines indiquant le rang</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique des tribus se termine par le suffixe -ae ou -eae[a] (mais pas -aceae, réservé aux familles) chez les plantes, les algues et les champignons, -eae[a] chez les bactéries et -ini[a] chez les animaux.
-Exemples
-Animaux : Scombrini, Hominini, Calyptorhynchini, Cacatuini, Nymphicini.
-Végétaux : Acacieae, Genisteae, Andropogoneae.
-Champignons (Fungi) : Agariceae, Bolbitieae, Encoelioideae
-Bactéries : Bacteroideae, Brucelleae, Escherichieae, Micrococceae, Proteeae, Rickettsieae, Salmonelleae, Staphylococceae, Streptococceae,  etc.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique des tribus se termine par le suffixe -ae ou -eae[a] (mais pas -aceae, réservé aux familles) chez les plantes, les algues et les champignons, -eae[a] chez les bactéries et -ini[a] chez les animaux.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Terminaisons latines indiquant le rang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Animaux : Scombrini, Hominini, Calyptorhynchini, Cacatuini, Nymphicini.
+Végétaux : Acacieae, Genisteae, Andropogoneae.
+Champignons (Fungi) : Agariceae, Bolbitieae, Encoelioideae
+Bactéries : Bacteroideae, Brucelleae, Escherichieae, Micrococceae, Proteeae, Rickettsieae, Salmonelleae, Staphylococceae, Streptococceae,  etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tribu_(biologie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tribu_(biologie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Autres rangs taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rangs taxonomiques[b] utilisés en systématique pour la classification hiérarchique du monde vivant sont les suivants (par ordre décroissant) :
 Super-règne, Empire, Domaine (Superregnum, Imperium, Dominium)
